--- a/Excel/New Era/2022.06.21/24.06.2022 NEW ERA — загрузка.xlsx
+++ b/Excel/New Era/2022.06.21/24.06.2022 NEW ERA — загрузка.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\New Era\2022.06.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831DD731-917D-4C9C-8002-2939EA17A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491B7CF-D2E2-400F-9FA5-E0019B1674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{787FF460-E1B0-40F4-BC6D-CD793C785A0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{787FF460-E1B0-40F4-BC6D-CD793C785A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$G$1:$Y$456</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$F$53</definedName>
     <definedName name="АртикулХарактеристики">[1]Settings!$C$2</definedName>
     <definedName name="УФ_Переключатель">[2]Settings!$E$18</definedName>
   </definedNames>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="374">
   <si>
     <t>Артикул</t>
   </si>
@@ -1043,6 +1045,153 @@
   </si>
   <si>
     <t>ГТД</t>
+  </si>
+  <si>
+    <t>3677 цена</t>
+  </si>
+  <si>
+    <t>3678 цена</t>
+  </si>
+  <si>
+    <t>3677 ГТД</t>
+  </si>
+  <si>
+    <t>3678 ГТД</t>
+  </si>
+  <si>
+    <t>80636012carwhi</t>
+  </si>
+  <si>
+    <t>80524868whi</t>
+  </si>
+  <si>
+    <t>80468932blk</t>
+  </si>
+  <si>
+    <t>12572845otc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12523912blkblk</t>
+  </si>
+  <si>
+    <t>12523903whiwhi</t>
+  </si>
+  <si>
+    <t>12523894novwhi</t>
+  </si>
+  <si>
+    <t>12523893stnwhi</t>
+  </si>
+  <si>
+    <t>12380796otc</t>
+  </si>
+  <si>
+    <t>12380594blk</t>
+  </si>
+  <si>
+    <t>12380590stn</t>
+  </si>
+  <si>
+    <t>12285467whi</t>
+  </si>
+  <si>
+    <t>12122742blkblk</t>
+  </si>
+  <si>
+    <t>12122741blkwhi</t>
+  </si>
+  <si>
+    <t>12052000blk</t>
+  </si>
+  <si>
+    <t>12051998mncblk</t>
+  </si>
+  <si>
+    <t>11871279blkotc</t>
+  </si>
+  <si>
+    <t>11588490grawhi</t>
+  </si>
+  <si>
+    <t>11588488scawhi</t>
+  </si>
+  <si>
+    <t>11579473blk</t>
+  </si>
+  <si>
+    <t>11576724navy</t>
+  </si>
+  <si>
+    <t>11405614otc</t>
+  </si>
+  <si>
+    <t>11405497lrywhi</t>
+  </si>
+  <si>
+    <t>11180834blkblk</t>
+  </si>
+  <si>
+    <t>11157579lrywhi</t>
+  </si>
+  <si>
+    <t>11157578whi</t>
+  </si>
+  <si>
+    <t>10879529blk</t>
+  </si>
+  <si>
+    <t>10531956team</t>
+  </si>
+  <si>
+    <t>10531953nvywhi</t>
+  </si>
+  <si>
+    <t>10531941blkwhi</t>
+  </si>
+  <si>
+    <t>10531939nvywhi</t>
+  </si>
+  <si>
+    <t>10145638blawht</t>
+  </si>
+  <si>
+    <t>10145636nvywht</t>
+  </si>
+  <si>
+    <t>10047544otc</t>
+  </si>
+  <si>
+    <t>10047540grn</t>
+  </si>
+  <si>
+    <t>10047538navy</t>
+  </si>
+  <si>
+    <t>10047531gm</t>
+  </si>
+  <si>
+    <t>10216170/160120/0009423/3</t>
+  </si>
+  <si>
+    <t>10047515blkwhi</t>
+  </si>
+  <si>
+    <t>10047511otc</t>
+  </si>
+  <si>
+    <t>10047507navy</t>
+  </si>
+  <si>
+    <t>10145637blkblk</t>
+  </si>
+  <si>
+    <t>80489231grapnk</t>
+  </si>
+  <si>
+    <t>10531954team</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1176,6 +1325,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1200,7 +1352,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Загрузка"/>
       <sheetName val="Товары"/>
       <sheetName val="Форма"/>
       <sheetName val="Caps"/>
@@ -1219,6 +1370,7 @@
       <sheetName val="Форма(old)"/>
       <sheetName val="Строчный"/>
       <sheetName val="Settings"/>
+      <sheetName val="Загрузка"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1238,14 +1390,14 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
+      <sheetData sheetId="17">
         <row r="2">
           <cell r="C2" t="str">
             <v>Строчный!S1:S53</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1590,9 +1742,9 @@
   </sheetPr>
   <dimension ref="A1:Y456"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P53"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16565,4 +16717,1562 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF87D4-6054-4643-91D8-9032965145B3}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1846.65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1862.06</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1862.06</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1691.6</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1582.78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23">
+        <v>11576724</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>354</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>356</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>357</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1293.46</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1210.25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1687.44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1687.44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>371</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1592.06</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1489.65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1442.76</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1349.95</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1890.67</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1769.05</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F53" xr:uid="{85BF87D4-6054-4643-91D8-9032965145B3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>